--- a/questionlist.xlsx
+++ b/questionlist.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="448">
   <si>
     <t>问题描述</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2150,6 +2150,10 @@
   </si>
   <si>
     <t>流程审批通过之后，项目阶段和最终审批结果有误</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14206,10 +14210,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:K30"/>
+  <dimension ref="A1:K32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
-      <selection activeCell="E30" sqref="E1:E1048576"/>
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -14864,6 +14868,11 @@
         <v>446</v>
       </c>
     </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="A32" t="s">
+        <v>447</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="1">
